--- a/锂电/锂电报价.xlsx
+++ b/锂电/锂电报价.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +167,70 @@
   </si>
   <si>
     <t>370x150x120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60V50Ah【外卖爆款120-180公里】送5A充电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60V45Ah【性价王100-160公里】送5A充电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72V45Ah【性价王100-160公里】送5A充电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72V50Ah【外卖爆款120-180公里】送5A充电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72V55Ah【外卖爆款150-200公里】送5A充电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72V65Ah【外卖爆款180-230公里】送8A充电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72V70Ah【外卖爆款200-250公里】送8A充电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60V55Ah【外卖爆款150-200公里】送5A充电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60V65Ah【外卖爆款180-230公里】送8A充电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60V70Ah【外卖爆款200-250公里】送8A充电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48V45Ah【性价王100-160公里】送5A充电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48V50Ah【外卖爆款120-180公里】送5A充电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48V55Ah【外卖爆款150-200公里】送5A充电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48V65Ah【外卖爆款180-230公里】送8A充电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48V70Ah【外卖爆款200-250公里】送8A充电器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -358,11 +423,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -377,13 +468,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -664,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -713,7 +810,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -746,12 +843,12 @@
         <f>SUM(J2+J2/2)</f>
         <v>1216.9499999999998</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="8">
         <v>1300</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
@@ -780,12 +877,12 @@
         <f t="shared" ref="K3:K23" si="1">SUM(J3+J3/2)</f>
         <v>1995.4499999999998</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="8">
         <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -814,12 +911,12 @@
         <f t="shared" si="1"/>
         <v>2190.4499999999998</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="8">
         <v>2200</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -852,12 +949,12 @@
         <f t="shared" si="1"/>
         <v>2385.4499999999998</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="8">
         <v>2380</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
@@ -886,12 +983,12 @@
         <f t="shared" si="1"/>
         <v>2596.6499999999996</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="8">
         <v>2530</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
@@ -920,12 +1017,12 @@
         <f t="shared" si="1"/>
         <v>3103.6499999999996</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <v>2870</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
@@ -954,12 +1051,12 @@
         <f t="shared" si="1"/>
         <v>3298.6499999999996</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="8">
         <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -980,7 +1077,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1011,12 +1108,12 @@
         <f t="shared" si="1"/>
         <v>1495.5</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="8">
         <v>1500</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1045,12 +1142,12 @@
         <f t="shared" si="1"/>
         <v>2517</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="8">
         <v>2500</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1079,12 +1176,12 @@
         <f t="shared" si="1"/>
         <v>2772</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="8">
         <v>2680</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1115,12 +1212,12 @@
         <f t="shared" si="1"/>
         <v>3027</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="8">
         <v>2820</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
@@ -1149,12 +1246,12 @@
         <f t="shared" si="1"/>
         <v>3378</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="8">
         <v>3060</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
@@ -1183,12 +1280,12 @@
         <f t="shared" si="1"/>
         <v>3948</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="8">
         <v>3430</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1217,12 +1314,12 @@
         <f t="shared" si="1"/>
         <v>4203</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="8">
         <v>3600</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1253,12 +1350,12 @@
         <f t="shared" si="1"/>
         <v>1735.9499999999998</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="8">
         <v>1740</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
@@ -1287,12 +1384,12 @@
         <f t="shared" si="1"/>
         <v>2950.95</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="8">
         <v>2770</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
@@ -1321,12 +1418,12 @@
         <f t="shared" si="1"/>
         <v>3250.9500000000003</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="8">
         <v>2970</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1357,12 +1454,12 @@
         <f t="shared" si="1"/>
         <v>3550.9500000000003</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="8">
         <v>3170</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1391,12 +1488,12 @@
         <f t="shared" si="1"/>
         <v>3868.5</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="8">
         <v>3280</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -1425,12 +1522,12 @@
         <f t="shared" si="1"/>
         <v>4618.5</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="8">
         <v>3880</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="6" t="s">
         <v>33</v>
       </c>
@@ -1459,11 +1556,616 @@
         <f t="shared" si="1"/>
         <v>4918.5</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="8">
         <v>4080</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4">
+        <v>1040</v>
+      </c>
+      <c r="F26" s="4">
+        <v>105.3</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45</v>
+      </c>
+      <c r="H26" s="4">
+        <v>80</v>
+      </c>
+      <c r="I26" s="4">
+        <v>60</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" ref="J26:J45" si="2">SUM(E26+F26+G26+H26+I26)</f>
+        <v>1330.3</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1830</v>
+      </c>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4">
+        <v>1170</v>
+      </c>
+      <c r="F27" s="4">
+        <v>105.3</v>
+      </c>
+      <c r="G27" s="4">
+        <v>45</v>
+      </c>
+      <c r="H27" s="4">
+        <v>80</v>
+      </c>
+      <c r="I27" s="4">
+        <v>60</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="2"/>
+        <v>1460.3</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1960</v>
+      </c>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4">
+        <v>11.44</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1300</v>
+      </c>
+      <c r="F28" s="4">
+        <v>105.3</v>
+      </c>
+      <c r="G28" s="4">
+        <v>45</v>
+      </c>
+      <c r="H28" s="4">
+        <v>80</v>
+      </c>
+      <c r="I28" s="4">
+        <v>60</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="2"/>
+        <v>1590.3</v>
+      </c>
+      <c r="K28" s="5">
+        <v>2190</v>
+      </c>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4">
+        <v>1430</v>
+      </c>
+      <c r="F29" s="4">
+        <v>116.1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>45</v>
+      </c>
+      <c r="H29" s="4">
+        <v>80</v>
+      </c>
+      <c r="I29" s="4">
+        <v>60</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="2"/>
+        <v>1731.1</v>
+      </c>
+      <c r="K29" s="5">
+        <v>2330</v>
+      </c>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4">
+        <v>1690</v>
+      </c>
+      <c r="F30" s="4">
+        <v>116.1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>95</v>
+      </c>
+      <c r="H30" s="4">
+        <v>108</v>
+      </c>
+      <c r="I30" s="4">
+        <v>60</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="2"/>
+        <v>2069.1</v>
+      </c>
+      <c r="K30" s="5">
+        <v>2670</v>
+      </c>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4">
+        <v>1820</v>
+      </c>
+      <c r="F31" s="4">
+        <v>116.1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>95</v>
+      </c>
+      <c r="H31" s="4">
+        <v>108</v>
+      </c>
+      <c r="I31" s="4">
+        <v>60</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="2"/>
+        <v>2199.1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4">
+        <v>1360</v>
+      </c>
+      <c r="F33" s="4">
+        <v>108</v>
+      </c>
+      <c r="G33" s="4">
+        <v>50</v>
+      </c>
+      <c r="H33" s="4">
+        <v>100</v>
+      </c>
+      <c r="I33" s="4">
+        <v>60</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="2"/>
+        <v>1678</v>
+      </c>
+      <c r="K33" s="5">
+        <v>2080</v>
+      </c>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4">
+        <v>1530</v>
+      </c>
+      <c r="F34" s="4">
+        <v>108</v>
+      </c>
+      <c r="G34" s="4">
+        <v>50</v>
+      </c>
+      <c r="H34" s="4">
+        <v>100</v>
+      </c>
+      <c r="I34" s="4">
+        <v>60</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="2"/>
+        <v>1848</v>
+      </c>
+      <c r="K34" s="5">
+        <v>2250</v>
+      </c>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4">
+        <v>14.96</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4">
+        <v>1700</v>
+      </c>
+      <c r="F35" s="4">
+        <v>108</v>
+      </c>
+      <c r="G35" s="4">
+        <v>50</v>
+      </c>
+      <c r="H35" s="4">
+        <v>100</v>
+      </c>
+      <c r="I35" s="4">
+        <v>60</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="K35" s="5">
+        <v>2620</v>
+      </c>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4">
+        <v>1870</v>
+      </c>
+      <c r="F36" s="4">
+        <v>117</v>
+      </c>
+      <c r="G36" s="4">
+        <v>105</v>
+      </c>
+      <c r="H36" s="4">
+        <v>100</v>
+      </c>
+      <c r="I36" s="4">
+        <v>60</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="2"/>
+        <v>2252</v>
+      </c>
+      <c r="K36" s="5">
+        <v>2850</v>
+      </c>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4">
+        <v>2210</v>
+      </c>
+      <c r="F37" s="4">
+        <v>117</v>
+      </c>
+      <c r="G37" s="4">
+        <v>105</v>
+      </c>
+      <c r="H37" s="4">
+        <v>140</v>
+      </c>
+      <c r="I37" s="4">
+        <v>60</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="2"/>
+        <v>2632</v>
+      </c>
+      <c r="K37" s="5">
+        <v>3200</v>
+      </c>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4">
+        <v>2380</v>
+      </c>
+      <c r="F38" s="4">
+        <v>117</v>
+      </c>
+      <c r="G38" s="4">
+        <v>105</v>
+      </c>
+      <c r="H38" s="4">
+        <v>140</v>
+      </c>
+      <c r="I38" s="4">
+        <v>60</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="2"/>
+        <v>2802</v>
+      </c>
+      <c r="K38" s="5">
+        <v>3400</v>
+      </c>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4">
+        <v>1600</v>
+      </c>
+      <c r="F40" s="4">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="G40" s="4">
+        <v>55</v>
+      </c>
+      <c r="H40" s="4">
+        <v>120</v>
+      </c>
+      <c r="I40" s="4">
+        <v>60</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="2"/>
+        <v>1967.3</v>
+      </c>
+      <c r="K40" s="5">
+        <v>2370</v>
+      </c>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="4">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="G41" s="4">
+        <v>55</v>
+      </c>
+      <c r="H41" s="4">
+        <v>120</v>
+      </c>
+      <c r="I41" s="4">
+        <v>60</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="2"/>
+        <v>2167.3000000000002</v>
+      </c>
+      <c r="K41" s="5">
+        <v>2570</v>
+      </c>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F42" s="4">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="G42" s="4">
+        <v>55</v>
+      </c>
+      <c r="H42" s="4">
+        <v>120</v>
+      </c>
+      <c r="I42" s="4">
+        <v>60</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="2"/>
+        <v>2367.3000000000002</v>
+      </c>
+      <c r="K42" s="5">
+        <v>2970</v>
+      </c>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4">
+        <v>2200</v>
+      </c>
+      <c r="F43" s="4">
+        <v>144</v>
+      </c>
+      <c r="G43" s="4">
+        <v>55</v>
+      </c>
+      <c r="H43" s="4">
+        <v>120</v>
+      </c>
+      <c r="I43" s="4">
+        <v>60</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="2"/>
+        <v>2579</v>
+      </c>
+      <c r="K43" s="5">
+        <v>3180</v>
+      </c>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4">
+        <v>2600</v>
+      </c>
+      <c r="F44" s="4">
+        <v>144</v>
+      </c>
+      <c r="G44" s="4">
+        <v>115</v>
+      </c>
+      <c r="H44" s="4">
+        <v>160</v>
+      </c>
+      <c r="I44" s="4">
+        <v>60</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="2"/>
+        <v>3079</v>
+      </c>
+      <c r="K44" s="5">
+        <v>3680</v>
+      </c>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6">
+        <v>2800</v>
+      </c>
+      <c r="F45" s="6">
+        <v>144</v>
+      </c>
+      <c r="G45" s="6">
+        <v>115</v>
+      </c>
+      <c r="H45" s="6">
+        <v>160</v>
+      </c>
+      <c r="I45" s="6">
+        <v>60</v>
+      </c>
+      <c r="J45" s="6">
+        <f t="shared" si="2"/>
+        <v>3279</v>
+      </c>
+      <c r="K45" s="7">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A9"/>
@@ -1474,4 +2176,161 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>